--- a/16b.xlsx
+++ b/16b.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9592D645-5806-4520-8D77-074263D7760E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204AA7D0-3293-4B9D-938F-0E64C24DF3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4590" yWindow="1545" windowWidth="28800" windowHeight="16200" xr2:uid="{84708DEE-9711-4D20-924B-66D801C0F3C4}"/>
   </bookViews>
   <sheets>
     <sheet name="成績（スタック形式）" sheetId="8" r:id="rId1"/>
-    <sheet name="成績（アンスタック形式）" sheetId="7" r:id="rId2"/>
-    <sheet name="作成例→" sheetId="15" r:id="rId3"/>
-    <sheet name="成績（スタック形式→アンスタック形式）" sheetId="14" r:id="rId4"/>
-    <sheet name="成績（スタック形式→アンスタック形式 ピボットテーブル）" sheetId="13" r:id="rId5"/>
-    <sheet name="成績（アンスタック形式→スタック形式）" sheetId="16" r:id="rId6"/>
-    <sheet name="1人当たりGDP（USドル作成例）" sheetId="17" r:id="rId7"/>
-    <sheet name="成績（2回）" sheetId="10" r:id="rId8"/>
+    <sheet name="成績（スタック形式ピボットテーブル用）" sheetId="18" r:id="rId2"/>
+    <sheet name="成績（アンスタック形式）" sheetId="7" r:id="rId3"/>
+    <sheet name="作成例→" sheetId="15" r:id="rId4"/>
+    <sheet name="成績（スタック形式→アンスタック形式）" sheetId="14" r:id="rId5"/>
+    <sheet name="成績（スタック形式→アンスタック形式 ピボットテーブル）" sheetId="13" r:id="rId6"/>
+    <sheet name="成績（アンスタック形式→スタック形式）" sheetId="16" r:id="rId7"/>
+    <sheet name="1人当たりGDP（USドル作成例）" sheetId="17" r:id="rId8"/>
+    <sheet name="成績（2回）" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="47">
   <si>
     <t>英語</t>
     <rPh sb="0" eb="2">
@@ -3711,11 +3712,222 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B6A531-66FD-4C65-87D0-9FC7EAC38B5E}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C72928-18DA-4B6E-A282-7AB21FC4E277}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -3958,7 +4170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931243B2-F9EA-411D-8524-1499F5E512E4}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -3975,7 +4187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18911AC7-4490-4551-B1E4-DC27750EDBD7}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -4028,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="F4" cm="1">
-        <f t="array" ref="F4:G11">_xlfn.WRAPCOLS(C4:C19,MAX(E4:E11))</f>
+        <f t="array" ref="F4:G11">_xlfn.WRAPCOLS(C4:C19,COUNT(E4:E11))</f>
         <v>98</v>
       </c>
       <c r="G4">
@@ -4270,12 +4482,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4989CB-BF58-463E-AD37-3995221B4A6C}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -4610,12 +4822,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF84BB5-4168-4097-AC1A-BFC34614BFB4}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -4904,12 +5116,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57CD9A-C510-463F-97D0-0FD8A58477D6}">
   <dimension ref="A1:P173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -6918,12 +7130,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F021D5-D767-4035-AA81-C1CD5F2EDA79}">
   <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -7057,7 +7269,7 @@
         <v>14</v>
       </c>
       <c r="U4" cm="1">
-        <f t="array" ref="U4:U11">$F$5:$F$12</f>
+        <f t="array" ref="U4:U35">_xlfn.MAKEARRAY(32,1,_xlfn.LAMBDA(_xlpm.row,_xlpm.col,IF(MOD(_xlpm.row,8)=0,8,MOD(_xlpm.row,8))))</f>
         <v>1</v>
       </c>
       <c r="V4" t="str" cm="1">
@@ -7573,8 +7785,7 @@
       <c r="S12">
         <v>261</v>
       </c>
-      <c r="U12" cm="1">
-        <f t="array" ref="U12:U19">$F$5:$F$12</f>
+      <c r="U12">
         <v>1</v>
       </c>
       <c r="V12" t="str">
@@ -7845,8 +8056,7 @@
       <c r="L20" t="s">
         <v>40</v>
       </c>
-      <c r="U20" cm="1">
-        <f t="array" ref="U20:U27">$F$5:$F$12</f>
+      <c r="U20">
         <v>1</v>
       </c>
       <c r="V20" t="str">
@@ -8063,8 +8273,7 @@
       <c r="D28">
         <v>98</v>
       </c>
-      <c r="U28" cm="1">
-        <f t="array" ref="U28:U35">$F$5:$F$12</f>
+      <c r="U28">
         <v>1</v>
       </c>
       <c r="V28" t="str">
